--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qazi/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qazi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CE13D-5B18-F04B-8156-929B67D01364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE7FF7-78E6-8F4B-B19C-E4FD7D420FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="24940" windowHeight="15540" xr2:uid="{72505CD5-DBD0-124D-A682-AD1BB3DE835A}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{72505CD5-DBD0-124D-A682-AD1BB3DE835A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Test Class</t>
   </si>
   <si>
-    <t>setDriver()</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify webdriver properties and URL </t>
   </si>
   <si>
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>Komoot website</t>
-  </si>
-  <si>
-    <t>Successful_login()</t>
   </si>
   <si>
     <t>PROD</t>
@@ -462,9 +456,6 @@
     </r>
   </si>
   <si>
-    <t>Unsuccessful_login()</t>
-  </si>
-  <si>
     <t>Verify Unsuccessful login attempts</t>
   </si>
   <si>
@@ -767,9 +758,6 @@
     </r>
   </si>
   <si>
-    <t>Page_link_validation_bottom_links()</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -790,9 +778,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Page_link_validation_Top_links()</t>
   </si>
   <si>
     <t xml:space="preserve">Veify the Page Links on bottom of the webpage  </t>
@@ -910,9 +895,6 @@
     <t xml:space="preserve">1. Open website
 2. When a user  click on page links "Discover"
 </t>
-  </si>
-  <si>
-    <t>Successful_Sign_up()</t>
   </si>
   <si>
     <t xml:space="preserve">Verify Signup process of the user </t>
@@ -1399,6 +1381,24 @@
 Username: Seven_senders_1
 password: seven5671</t>
     </r>
+  </si>
+  <si>
+    <t>komootlandingpage()</t>
+  </si>
+  <si>
+    <t>Logintestcases()</t>
+  </si>
+  <si>
+    <t>Unsuccessfullogin()</t>
+  </si>
+  <si>
+    <t>Pagelinkbottom()</t>
+  </si>
+  <si>
+    <t>Pagelinksheader</t>
+  </si>
+  <si>
+    <t>Signup()</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1623,35 +1623,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1970,7 +1973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9089D919-A8CF-934C-BE0D-E0951CD87B85}">
   <dimension ref="A2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1993,49 +1998,49 @@
       <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2057,31 +2062,31 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="305" customHeight="1" x14ac:dyDescent="0.2">
@@ -2095,31 +2100,31 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -2133,31 +2138,31 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="244" customHeight="1" x14ac:dyDescent="0.2">
@@ -2171,31 +2176,31 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>43</v>
+      <c r="G8" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>44</v>
+      <c r="K8" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="212" customHeight="1" x14ac:dyDescent="0.2">
@@ -2209,31 +2214,31 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
+      <c r="G9" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="314" customHeight="1" x14ac:dyDescent="0.2">
@@ -2247,48 +2252,54 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
+      <c r="G10" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>59</v>
+      <c r="J10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" xr:uid="{FF084480-CB6C-0C40-8C14-12ED5C433878}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{4BF03439-2B98-CE42-B23F-64E8D978CD1E}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{3873877E-20B8-BB4B-BCF9-A170E3229CBA}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{CD1F4B23-268B-4B47-BAB9-735266E197BD}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{D6B370B6-A10B-E046-9C95-178C67E76135}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{0F0E889B-5BDE-6F49-8C63-B21D0BA45F64}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{85FD44BC-506E-854E-86BD-5CE49A9C1EEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
